--- a/carga_blackout_2025_dados.xlsx
+++ b/carga_blackout_2025_dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vodasunenergietechnikgm-my.sharepoint.com/personal/kenia_silverio_vodasun_de/Documents/Desktop/Analises/29.04/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenia.silverio\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_E665325DE8781DCE4112C9A1E686DC48E63A69F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CE849AC-D4A5-4443-AE6A-49700C6947CB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CD4E08-9DAD-48D6-818A-879C17A87177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portugal" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
   <si>
     <t>Actual Load</t>
+  </si>
+  <si>
+    <t>TIME</t>
   </si>
 </sst>
 </file>
@@ -33,7 +36,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -47,6 +50,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,13 +88,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -396,22 +404,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>45774.958333333343</v>
       </c>
       <c r="B2">
@@ -419,7 +428,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>45775</v>
       </c>
       <c r="B3">
@@ -427,7 +436,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>45775.041666666657</v>
       </c>
       <c r="B4">
@@ -435,7 +444,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>45775.083333333343</v>
       </c>
       <c r="B5">
@@ -443,7 +452,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>45775.125</v>
       </c>
       <c r="B6">
@@ -451,7 +460,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>45775.166666666657</v>
       </c>
       <c r="B7">
@@ -459,7 +468,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>45775.208333333343</v>
       </c>
       <c r="B8">
@@ -467,7 +476,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>45775.25</v>
       </c>
       <c r="B9">
@@ -475,7 +484,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>45775.291666666657</v>
       </c>
       <c r="B10">
@@ -483,7 +492,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>45775.333333333343</v>
       </c>
       <c r="B11">
@@ -491,7 +500,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>45775.375</v>
       </c>
       <c r="B12">
@@ -499,7 +508,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>45775.416666666657</v>
       </c>
       <c r="B13">
@@ -507,7 +516,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>45775.458333333343</v>
       </c>
       <c r="B14">
@@ -515,7 +524,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>45775.5</v>
       </c>
       <c r="B15">
@@ -523,7 +532,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>45775.541666666657</v>
       </c>
       <c r="B16">
@@ -531,7 +540,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>45775.583333333343</v>
       </c>
       <c r="B17">
@@ -539,7 +548,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>45775.625</v>
       </c>
       <c r="B18">
@@ -547,7 +556,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>45775.666666666657</v>
       </c>
       <c r="B19">
@@ -555,7 +564,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>45775.708333333343</v>
       </c>
       <c r="B20">
@@ -563,7 +572,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>45775.75</v>
       </c>
       <c r="B21">
@@ -571,7 +580,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>45775.791666666657</v>
       </c>
       <c r="B22">
@@ -579,7 +588,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>45775.833333333343</v>
       </c>
       <c r="B23">
@@ -587,7 +596,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>45775.875</v>
       </c>
       <c r="B24">
@@ -595,7 +604,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>45775.916666666657</v>
       </c>
       <c r="B25">
@@ -614,14 +623,20 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>45774.916666666657</v>
       </c>
       <c r="B2">
@@ -629,7 +644,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>45774.958333333343</v>
       </c>
       <c r="B3">
@@ -637,7 +652,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>45775</v>
       </c>
       <c r="B4">
@@ -645,7 +660,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>45775.041666666657</v>
       </c>
       <c r="B5">
@@ -653,7 +668,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>45775.083333333343</v>
       </c>
       <c r="B6">
@@ -661,7 +676,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>45775.125</v>
       </c>
       <c r="B7">
@@ -669,7 +684,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>45775.166666666657</v>
       </c>
       <c r="B8">
@@ -677,7 +692,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>45775.208333333343</v>
       </c>
       <c r="B9">
@@ -685,7 +700,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>45775.25</v>
       </c>
       <c r="B10">
@@ -693,7 +708,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>45775.291666666657</v>
       </c>
       <c r="B11">
@@ -701,7 +716,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>45775.333333333343</v>
       </c>
       <c r="B12">
@@ -709,7 +724,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>45775.375</v>
       </c>
       <c r="B13">
@@ -717,7 +732,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>45775.416666666657</v>
       </c>
       <c r="B14">
@@ -725,7 +740,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>45775.458333333343</v>
       </c>
       <c r="B15">
@@ -733,7 +748,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>45775.5</v>
       </c>
       <c r="B16">
@@ -741,7 +756,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>45775.541666666657</v>
       </c>
       <c r="B17">
@@ -749,7 +764,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>45775.583333333343</v>
       </c>
       <c r="B18">
@@ -757,7 +772,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>45775.625</v>
       </c>
       <c r="B19">
@@ -765,7 +780,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>45775.666666666657</v>
       </c>
       <c r="B20">
@@ -773,7 +788,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>45775.708333333343</v>
       </c>
       <c r="B21">
@@ -781,7 +796,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>45775.75</v>
       </c>
       <c r="B22">
@@ -789,7 +804,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>45775.791666666657</v>
       </c>
       <c r="B23">
@@ -797,7 +812,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>45775.833333333343</v>
       </c>
       <c r="B24">
@@ -805,7 +820,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>45775.875</v>
       </c>
       <c r="B25">
@@ -824,14 +839,20 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>45774.916666666657</v>
       </c>
       <c r="B2">
@@ -839,7 +860,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>45774.958333333343</v>
       </c>
       <c r="B3">
@@ -847,7 +868,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>45775</v>
       </c>
       <c r="B4">
@@ -855,7 +876,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>45775.041666666657</v>
       </c>
       <c r="B5">
@@ -863,7 +884,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>45775.083333333343</v>
       </c>
       <c r="B6">
@@ -871,7 +892,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>45775.125</v>
       </c>
       <c r="B7">
@@ -879,7 +900,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>45775.166666666657</v>
       </c>
       <c r="B8">
@@ -887,7 +908,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>45775.208333333343</v>
       </c>
       <c r="B9">
@@ -895,7 +916,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>45775.25</v>
       </c>
       <c r="B10">
@@ -903,7 +924,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>45775.291666666657</v>
       </c>
       <c r="B11">
@@ -911,7 +932,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>45775.333333333343</v>
       </c>
       <c r="B12">
@@ -919,7 +940,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>45775.375</v>
       </c>
       <c r="B13">
@@ -927,7 +948,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>45775.416666666657</v>
       </c>
       <c r="B14">
@@ -935,7 +956,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>45775.458333333343</v>
       </c>
       <c r="B15">
@@ -943,7 +964,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>45775.5</v>
       </c>
       <c r="B16">
@@ -951,7 +972,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>45775.541666666657</v>
       </c>
       <c r="B17">
@@ -959,7 +980,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>45775.583333333343</v>
       </c>
       <c r="B18">
@@ -967,7 +988,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>45775.625</v>
       </c>
       <c r="B19">
@@ -975,7 +996,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>45775.666666666657</v>
       </c>
       <c r="B20">
@@ -983,7 +1004,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>45775.708333333343</v>
       </c>
       <c r="B21">
@@ -991,7 +1012,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>45775.75</v>
       </c>
       <c r="B22">
@@ -999,7 +1020,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>45775.791666666657</v>
       </c>
       <c r="B23">
@@ -1007,7 +1028,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>45775.833333333343</v>
       </c>
       <c r="B24">
@@ -1015,7 +1036,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>45775.875</v>
       </c>
       <c r="B25">
@@ -1031,17 +1052,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>45774.916666666657</v>
       </c>
       <c r="B2">
@@ -1049,7 +1078,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>45774.958333333343</v>
       </c>
       <c r="B3">
@@ -1057,7 +1086,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>45775</v>
       </c>
       <c r="B4">
@@ -1065,7 +1094,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>45775.041666666657</v>
       </c>
       <c r="B5">
@@ -1073,7 +1102,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>45775.083333333343</v>
       </c>
       <c r="B6">
@@ -1081,7 +1110,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>45775.125</v>
       </c>
       <c r="B7">
@@ -1089,7 +1118,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>45775.166666666657</v>
       </c>
       <c r="B8">
@@ -1097,7 +1126,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>45775.208333333343</v>
       </c>
       <c r="B9">
@@ -1105,7 +1134,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>45775.25</v>
       </c>
       <c r="B10">
@@ -1113,7 +1142,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>45775.291666666657</v>
       </c>
       <c r="B11">
@@ -1121,7 +1150,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>45775.333333333343</v>
       </c>
       <c r="B12">
@@ -1129,7 +1158,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>45775.375</v>
       </c>
       <c r="B13">
@@ -1137,7 +1166,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>45775.416666666657</v>
       </c>
       <c r="B14">
@@ -1145,7 +1174,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>45775.458333333343</v>
       </c>
       <c r="B15">
@@ -1153,7 +1182,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>45775.5</v>
       </c>
       <c r="B16">
@@ -1161,7 +1190,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>45775.541666666657</v>
       </c>
       <c r="B17">
@@ -1169,7 +1198,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>45775.583333333343</v>
       </c>
       <c r="B18">
@@ -1177,7 +1206,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>45775.625</v>
       </c>
       <c r="B19">
@@ -1185,7 +1214,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>45775.666666666657</v>
       </c>
       <c r="B20">
@@ -1193,7 +1222,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>45775.708333333343</v>
       </c>
       <c r="B21">
@@ -1201,7 +1230,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>45775.75</v>
       </c>
       <c r="B22">
@@ -1209,7 +1238,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>45775.791666666657</v>
       </c>
       <c r="B23">
@@ -1217,7 +1246,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>45775.833333333343</v>
       </c>
       <c r="B24">
@@ -1225,7 +1254,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>45775.875</v>
       </c>
       <c r="B25">
